--- a/lambda_wall_param.xlsx
+++ b/lambda_wall_param.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Projects\pythonProject6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD42B5BE-5D33-45E6-9793-AAFA58FC054D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DF28DF-FAAF-44F8-9810-C5CC0B15DB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -348,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -366,10 +366,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>323</v>
+        <v>273</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -377,7 +377,7 @@
         <v>373</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -385,7 +385,7 @@
         <v>473</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -393,7 +393,7 @@
         <v>573</v>
       </c>
       <c r="B5">
-        <v>20.5</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -401,7 +401,7 @@
         <v>673</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -409,7 +409,7 @@
         <v>773</v>
       </c>
       <c r="B7">
-        <v>24</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -417,7 +417,7 @@
         <v>873</v>
       </c>
       <c r="B8">
-        <v>25</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -425,7 +425,7 @@
         <v>973</v>
       </c>
       <c r="B9">
-        <v>27</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -433,23 +433,7 @@
         <v>1073</v>
       </c>
       <c r="B10">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1273</v>
-      </c>
-      <c r="B11">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>3000</v>
-      </c>
-      <c r="B12">
-        <v>35</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
